--- a/독서후기_2021.xlsx
+++ b/독서후기_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Rproject/quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F1BAB-3A37-D94C-A146-D598A180EF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814188C-1555-8D47-86C7-9C8B328AE290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{8B91B6E7-1C9B-CC4F-8B22-10687DC504DA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>책이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>화폐전쟁(Currency Wars)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>읽은 일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,147 +92,195 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2021 ~ 2022년 포스트 팬데믹 예측 분석 결과 요약하면 다음과 같다 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1) 디플레이션(또는 강한 디스인플레이션이 우세하게 나타 날 것이다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 (본문)"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">    - 디플레이션: 상품과 서비스 가격이 하락하는 현상 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    - 연준은 인플레이션을 선호 한다. -&gt;  정부 부채 및 GDP 대비 부채 비율을 줄여줌 
-    - 그러나, 저축률 증가 및 화폐유통속도가 감소하면서 결국 디플레이션 발생 예상
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2) 주가는 바닥을 치지 않는다. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 (본문)"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">   - 근거 : 미국경제와 실물경제의 차이(로봇, 낙관적 믿음, 회복 증거 없음) 
-    - 2021년 말 다우지수 1만6,000선, S&amp;P500지수는 1,750선 예측 
-      (현재, 다우: 3만 2,423,  S&amp;P500지수: 3,910, 20201년 3월 23일 기준)
-    - 방위산업, 천연자원, 기술 관련 종목 주목 필요 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3) 금리가 더 하락할 것이다. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4) 채권의 랠리가 지속될 것이다. </t>
-    </r>
+    <t>핵심 요약3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-9) 주거용 부동산에 투자하기 좋은 시기이다.  
-10) 달러는 단기적으로 강세를 보이다가 2022년 약세로 돌아설 것이다.  
-11) 석유가격은 생산량 감소와 제재에 따라 예상을 뛰어 넘는 호조세를 보일 것이다. 
-</t>
+    <t>특이사항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
+    <t>1자, 2장은 skip해도 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금의 미래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">최적의 자산 배분 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
+ - 현금 : 투자 가능한 자산의 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향후</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> 2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년간</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋은</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투자</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자산이며, 상황에 따라 투자에 선택</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 금 : 투자 가능한 자산의 10%
+ - 주거용 부동산 : 투자 가능한 자산의 20%
+ - 재무부 채권 : 투자 가능한 자산의 20% (5~10년 만기 채권)
+ - 주식: 투자 가능한 자산의 10% (천연자원, 광산, 원자재, 에너지, 물, 농업, 방위 산업 관련주)
+ - 대체 투자 : 투자 자산의 10% 
+부동산과 금은 인플레이션 헤지(대비책)이며, 재무부 채권과 현금은 디플레이션 헤지이다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -261,7 +305,308 @@
       <t xml:space="preserve">
     - 2025년 금 가격이 온스당 1만 4,000달러까지 상승 예측(현재 1,738 달러, 3월 23일)
     - 잘 운영된 금광회사는 6개월 간격을 두고 2,000% 상승 예상 
-    - 이유: 공포-&gt;안전자산 선호 증가,  실질금리,  수요와 공급(공급 감소) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">       - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안전자산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실질금리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수요와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">) 
+      - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디플레이션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인플레이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상승이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">필수요건임
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -279,6 +624,42 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저축률, 높은 GDP 대비 부채 비율 (130% 이상 예상)</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -315,15 +696,94 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8) 상업용 부동산 가격은 더 하락 할 것이다. </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">     - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실업자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실업급여를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중소기업의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파산, 코로나 봉쇄 충격</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +807,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">9) 주거용 부동산에 투자하기 좋은 시기이다.  </t>
+      <t xml:space="preserve">8) 상업용 부동산 가격은 더 하락 할 것이다. </t>
     </r>
     <r>
       <rPr>
@@ -360,6 +820,1024 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">      - 재택근무 및 중소기업 파산 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9) 주거용 부동산에 투자하기 좋은 시기이다.  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021 ~ 2022년 포스트 팬데믹 예측 분석 결과 요약하면 다음과 같다 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) 디플레이션(또는 강한 디스인플레이션이 우세하게 나타 날 것이다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디플레이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하락하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    - 연준은 인플레이션을 선호(자산가치 상승, 화폐 가치 하락) -&gt; 정부 부채 및 GDP 대비 부채비율 축소 가능 
+    - 그러나, 저축률 증가 및 화폐유통속도가 감소하면서 결국 디플레이션 발생 예상
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2) 주가는 바닥을 치지 않는다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미국경제와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실물경제의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로봇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낙관적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>믿음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), 정부 부채, 화폐유통속도 감소
+    - 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다우지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, S&amp;P500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지수는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1,750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+      (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2,423,  S&amp;P500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 3,910, 20201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방위산업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천연자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3) 금리가 더 하락할 것이다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">    -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채권금리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예상, 기준금리 0.25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4) 채권의 랠리가 지속될 것이다. </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,7 +1846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,7 +1882,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕 (본문)"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -413,6 +1890,46 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕 (본문)"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕 (본문)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -429,7 +1946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -558,21 +2075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -657,6 +2159,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -667,7 +2206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,9 +2223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,36 +2243,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C0DD9-FD1F-5442-9C9E-A7E19B67430E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1066,19 +2611,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" thickBot="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1086,91 +2631,96 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="19" thickBot="1">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="19" thickBot="1"/>
     <row r="6" spans="1:6" ht="105" customHeight="1" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="304" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
-    <row r="8" spans="1:6" ht="304" customHeight="1">
-      <c r="A8" s="18" t="s">
+    <row r="10" spans="1:6" ht="285" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>16</v>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="326" customHeight="1">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:6">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="191" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>18</v>
+      <c r="B12" s="18" t="s">
+        <v>19</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="232" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/독서후기_2021.xlsx
+++ b/독서후기_2021.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Rproject/quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814188C-1555-8D47-86C7-9C8B328AE290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401CBCC4-8647-224E-A3A4-D21527527848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{8B91B6E7-1C9B-CC4F-8B22-10687DC504DA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{8B91B6E7-1C9B-CC4F-8B22-10687DC504DA}"/>
   </bookViews>
   <sheets>
     <sheet name="신 대공항" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="돈의미래" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>책이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1839,6 +1840,27 @@
       </rPr>
       <t xml:space="preserve">4) 채권의 랠리가 지속될 것이다. </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈의 미래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐 로저스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 3월 초순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 짐 로저스의 개인적인 어린시절 부분이 생각보다 많이 나온다. 
+2. 포스트 팬데믹 이후 경제상황 예측 보다는 원칙적인 투자 방식에 대해 설명하고 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 12월 초판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2599,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C0DD9-FD1F-5442-9C9E-A7E19B67430E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2728,6 +2750,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C21E8-BD1C-1B48-BC28-868AF81DC1CF}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" thickBot="1"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="19" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="19" thickBot="1"/>
+    <row r="6" spans="1:6" ht="105" customHeight="1" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="304" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="285" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="191" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966840E4-6333-DB4E-A523-883F7AB7D598}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/독서후기_2021.xlsx
+++ b/독서후기_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Rproject/quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401CBCC4-8647-224E-A3A4-D21527527848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBF5D0-7D84-8148-8306-CADE2C2F740A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{8B91B6E7-1C9B-CC4F-8B22-10687DC504DA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>책이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1855,12 +1855,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 짐 로저스의 개인적인 어린시절 부분이 생각보다 많이 나온다. 
-2. 포스트 팬데믹 이후 경제상황 예측 보다는 원칙적인 투자 방식에 대해 설명하고 있다. </t>
+    <t>2020년 12월 초판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020년 12월 초판</t>
+    <t xml:space="preserve">1. 짐 로저스의 개인적인 어린시절 부분이 생각보다 많이 나온다. 
+2. 포스트 팬데믹 이후 경제상황 예측 보다는 투자 원칙에 대해 설명하고 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 가장 비관적일 때가 살 때고, 가장 낙관적일 때가 팔 때다 - 텔플턴- 
+2. 위기의 순간에야 말로 인내심이 요구된다. 투자할 때 가장 중요한 것은 '인내'다 
+3. 거대한 거품이 있을 때는 향후 시장 붕괴 가능성이 높다 
+4. 10-15년 주기로 세계가 극적으로 변화하는 사례가 많다. 
+5. 위기는 투자자에게 멋진 기회이다. 
+6. 만약 괜찮은 종목을 찾지 못했다면 어설프게 움직이느니 은행에 돈을 맡기고 적절한 시기에 
+   기다리는 편이 낫다 
+7. 역사를 돌이켜 보면 지금 일어나는 상황을 정확히 파악하고 보다 객관적으로 분석할 수 있다. 
+8. 스스로 무엇을 하고 있는지 모르면 반드시 실패한다. 기다려라. 그리고 철저히 준비하라. 
+9. 철자한 준비만이 언제 올지 모르지만 결국 행운은 준비된 사람에게 굴러 들어오게 되어 있다. 
+10. 모두가 열광적으로 빠져드는 대상을 경계하라. 
+     근거 없는 거품을 알아차리는 사람이 최후에 웃을 수 있다. 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 각국의 부채가 너무 많다. 
+    - 인도(경기침체기), 중국, 미국 
+2. 미국과 중국 무역전쟁으로 많은 나라의 경제성장을 둔화, 특히 인도 
+3. 현재 붕괴의 시발점이 독일 될 가능성이 높다. 
+4. 경제위기가 닥쳐올 때 금, 은, 미국달러를 보유 &lt;- 많은 사람들이 안전한 자산이라 믿기 있기 때문 
+5. 향후 패권은 중국과 러시아에 주목 
+6. 포스트 팬데믹 이후 최상의 경기 침체기가 될 가능성이 높다. 
+7. 대마초 시장을 주목하라.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2751,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C21E8-BD1C-1B48-BC28-868AF81DC1CF}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2807,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
@@ -2818,28 +2847,32 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="304" customHeight="1">
+    <row r="8" spans="1:6" ht="163" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="285" customHeight="1">
+    <row r="10" spans="1:6" ht="275" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -2848,23 +2881,12 @@
     <row r="11" spans="1:6">
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="191" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
